--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.021120.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6069,12 +6069,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6571,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6739,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6823,12 +6823,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7875,12 +7875,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8379,12 +8379,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8673,12 +8673,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10529,12 +10529,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11331,12 +11331,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11667,12 +11667,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11919,12 +11919,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12003,12 +12003,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12087,12 +12087,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12465,12 +12465,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12507,12 +12507,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13527,12 +13527,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13867,12 +13867,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14119,12 +14119,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15253,12 +15253,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15337,12 +15337,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15421,12 +15421,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15505,12 +15505,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15589,12 +15589,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16387,12 +16387,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16723,12 +16723,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16933,12 +16933,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16975,12 +16975,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18239,12 +18239,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18407,12 +18407,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18911,12 +18911,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19079,12 +19079,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19209,12 +19209,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19545,12 +19545,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19881,12 +19881,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20763,12 +20763,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21141,12 +21141,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21897,12 +21897,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22107,12 +22107,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22191,12 +22191,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22317,12 +22317,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22443,12 +22443,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22485,12 +22485,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22569,12 +22569,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22695,12 +22695,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22989,12 +22989,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23031,12 +23031,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23577,12 +23577,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
